--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp01748\root\workspace\pkg\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp28312\root\workspace\pkg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB66153-7077-4585-87D4-E5F89E04781E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559E5B4B-E4C9-4E68-A2DB-C95D0358635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8550" yWindow="2790" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,15 +377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -391,8 +395,11 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -402,8 +409,11 @@
       <c r="C3">
         <v>0.01</v>
       </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -413,8 +423,11 @@
       <c r="C4">
         <v>10</v>
       </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -423,6 +436,9 @@
       </c>
       <c r="C5">
         <v>9.9</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp28312\root\workspace\pkg\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp33583\root\workspace\pkg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559E5B4B-E4C9-4E68-A2DB-C95D0358635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEB75F3-1DA1-4467-9760-47FD086E4BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="2790" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="3825" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>price2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -398,8 +410,17 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -413,7 +434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -427,7 +448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>

--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp33583\root\workspace\pkg\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp47934\root\workspace\pkg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEB75F3-1DA1-4467-9760-47FD086E4BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3244D3-7F16-478D-899B-98FAE4E585F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="3825" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="3480" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,38 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,3,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,6,7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.01,0.9999]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3.1415,0.00]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,15 +421,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -411,16 +446,22 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -433,8 +474,14 @@
       <c r="D3">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -447,8 +494,14 @@
       <c r="D4">
         <v>4</v>
       </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -460,6 +513,12 @@
       </c>
       <c r="D5">
         <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp47934\root\workspace\pkg\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp24438\root\workspace\pkg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3244D3-7F16-478D-899B-98FAE4E585F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FF4FB4-6B98-4CBB-923B-14B525FA5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="3480" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16590" yWindow="3645" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
+    <sheet name="TestDecode" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +97,46 @@
   </si>
   <si>
     <t>[3.1415,0.00]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slice1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,2,3],[4,5,6]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[-1,-2,-3],[-4,-5,-6]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-1,-2,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多出的部分会被忽略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -525,4 +566,64 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C065B929-650B-4976-99BD-A88422A317B9}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="26.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp24438\root\workspace\pkg\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp14502\root\workspace\pkg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FF4FB4-6B98-4CBB-923B-14B525FA5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E747D2E-00E8-49BE-9F98-3C24645730B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16590" yWindow="3645" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13650" yWindow="3480" windowWidth="28800" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
     <sheet name="TestDecode" sheetId="2" r:id="rId2"/>
+    <sheet name="TestMapDecode" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +138,46 @@
   </si>
   <si>
     <t>多出的部分会被忽略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1":2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"a":"b"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"a":0.999}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"a":["b1","b2"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"a":[1,2]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C065B929-650B-4976-99BD-A88422A317B9}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -626,4 +667,57 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225E998-3BE5-4885-A7B0-1019DD2D526F}">
+  <dimension ref="A2:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp14502\root\workspace\pkg\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp54655\root\workspace\pkg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E747D2E-00E8-49BE-9F98-3C24645730B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C434B8-538C-4457-97DA-B7B1893124A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="3480" windowWidth="28800" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="4185" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,14 @@
   </si>
   <si>
     <t>{"a":[1,2]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Id":1,"Name":"Code","Prices":9.9}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,10 +619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C065B929-650B-4976-99BD-A88422A317B9}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -624,12 +632,12 @@
     <col min="5" max="5" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -645,8 +653,11 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -661,6 +672,9 @@
       </c>
       <c r="E3" t="s">
         <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -673,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225E998-3BE5-4885-A7B0-1019DD2D526F}">
   <dimension ref="A2:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp54655\root\workspace\pkg\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp15780\root\workspace\pkg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C434B8-538C-4457-97DA-B7B1893124A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7CE075-18C1-4E2F-A6C7-637A2C8482CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="4185" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="4110" windowWidth="28800" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
     <sheet name="TestDecode" sheetId="2" r:id="rId2"/>
     <sheet name="TestMapDecode" sheetId="3" r:id="rId3"/>
+    <sheet name="TestKV" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +187,22 @@
   </si>
   <si>
     <t>{"Id":1,"Name":"Code","Prices":9.9}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C065B929-650B-4976-99BD-A88422A317B9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -734,4 +751,59 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2291C4B-2773-4C9E-A9C2-8DFDFABE0E2F}">
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp15780\root\workspace\pkg\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadey\AppData\Local\Temp\scp56397\root\workspace\pkg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7CE075-18C1-4E2F-A6C7-637A2C8482CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416CA3A8-4165-4B7E-95B8-9A88F8EDC5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4110" windowWidth="28800" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8565" yWindow="3210" windowWidth="28800" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
     <sheet name="TestDecode" sheetId="2" r:id="rId2"/>
     <sheet name="TestMapDecode" sheetId="3" r:id="rId3"/>
     <sheet name="TestKV" sheetId="4" r:id="rId4"/>
+    <sheet name="TestSkip" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +204,46 @@
   </si>
   <si>
     <t>k4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2291C4B-2773-4C9E-A9C2-8DFDFABE0E2F}">
   <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -806,4 +847,65 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F37A7-3BFF-4E41-B432-A4BD5F6F89A9}">
+  <dimension ref="A2:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>